--- a/data/trans_dic/P54_A_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,79%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76,37%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>72,67%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,38; 39,81</t>
+          <t>6,54; 33,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,78; 82,51</t>
+          <t>47,62; 80,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,16; 80,2</t>
+          <t>44,45; 80,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,11; 43,67</t>
+          <t>16,71; 41,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,48; 87,77</t>
+          <t>71,69; 93,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,58; 92,53</t>
+          <t>69,15; 91,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 37,41</t>
+          <t>14,81; 33,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,2; 83,42</t>
+          <t>65,27; 84,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,82; 82,79</t>
+          <t>61,33; 82,62</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,06%</t>
+          <t>76,15%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 50,08</t>
+          <t>14,49; 59,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,23; 84,83</t>
+          <t>62,85; 90,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,48; 82,21</t>
+          <t>60,46; 88,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 56,5</t>
+          <t>33,75; 61,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,21; 86,09</t>
+          <t>70,56; 90,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,08; 85,49</t>
+          <t>62,34; 86,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,9; 47,88</t>
+          <t>28,21; 55,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,17; 82,81</t>
+          <t>71,04; 87,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,56; 81,23</t>
+          <t>65,95; 84,99</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,77%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,53%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>80,19%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,24; 53,55</t>
+          <t>22,88; 47,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,73; 81,72</t>
+          <t>73,47; 91,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,75; 84,09</t>
+          <t>61,29; 83,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,54; 49,36</t>
+          <t>32,54; 52,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,92; 86,56</t>
+          <t>75,17; 90,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,52; 88,84</t>
+          <t>76,85; 91,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,04; 48,3</t>
+          <t>32,07; 47,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,85; 82,12</t>
+          <t>77,72; 89,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,93; 84,69</t>
+          <t>73,28; 85,48</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,88%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>80,25%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,42; 44,02</t>
+          <t>28,77; 50,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,59; 80,05</t>
+          <t>69,76; 87,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,13; 81,61</t>
+          <t>62,57; 82,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,42; 47,29</t>
+          <t>32,37; 50,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,64; 86,17</t>
+          <t>64,77; 83,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,59; 90,15</t>
+          <t>77,02; 91,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 43,97</t>
+          <t>32,99; 47,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,68; 81,43</t>
+          <t>71,21; 83,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74,93; 84,71</t>
+          <t>73,37; 85,44</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>78,87%</t>
+          <t>75,81%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 42,11</t>
+          <t>15,53; 38,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,21; 81,31</t>
+          <t>61,57; 90,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,71; 74,84</t>
+          <t>45,69; 74,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,84; 53,3</t>
+          <t>29,64; 58,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,69; 92,93</t>
+          <t>74,58; 94,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,03; 96,86</t>
+          <t>84,9; 98,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,43; 43,99</t>
+          <t>24,64; 42,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,12; 85,6</t>
+          <t>69,7; 89,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,26; 84,81</t>
+          <t>61,32; 83,66</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1183,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1207,22 +1208,22 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>80,75%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,56; 51,95</t>
+          <t>20,99; 52,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,74; 92,53</t>
+          <t>74,35; 95,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,51; 84,72</t>
+          <t>62,03; 88,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 56,4</t>
+          <t>28,9; 60,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,97; 87,77</t>
+          <t>66,38; 89,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,4; 93,69</t>
+          <t>69,05; 92,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 50,8</t>
+          <t>28,16; 51,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>75,03; 88,63</t>
+          <t>74,99; 90,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,43; 88,01</t>
+          <t>70,82; 88,7</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>79,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,24; 39,4</t>
+          <t>26,11; 37,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,88; 77,97</t>
+          <t>74,24; 84,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>67,69; 76,09</t>
+          <t>65,38; 76,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,91; 45,01</t>
+          <t>36,3; 46,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,64; 83,94</t>
+          <t>78,21; 85,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,45; 87,72</t>
+          <t>79,8; 86,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,95; 41,2</t>
+          <t>32,51; 40,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>74,31; 80,15</t>
+          <t>77,21; 83,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>76,25; 81,15</t>
+          <t>74,33; 81,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13812</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69704</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>66185</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32686</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>110840</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97896</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46498</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>180544</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>164080</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5452; 28077</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50970; 86432</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46995; 84586</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19649; 49270</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>93763; 121812</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83033; 110030</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29744; 67192</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>155209; 201386</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>138492; 186560</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44117</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>130569</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>110061</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>60936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>135432</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93755</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105053</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>266001</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19827; 80748</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>104145; 150627</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>86690; 127435</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43538; 78821</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116503; 150169</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>77471; 106908</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74985; 147243</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>234987; 290118</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>176519; 227482</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48137</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>135331</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97608</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88921</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>222624</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>176639</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>137058</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>357955</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>274245</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31970; 67043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>119069; 148753</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>82348; 112406</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68211; 110715</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>198499; 239724</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>159574; 189201</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>112034; 165192</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>331180; 380275</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>250622; 292331</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60485</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149113</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116210</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76466</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>157395</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>158391</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>136950</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>306508</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>274601</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44694; 79069</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>130239; 163360</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>97767; 129364</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60109; 94613</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>135479; 173849</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143205; 169484</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>112534; 163234</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>281889; 329776</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>251069; 292379</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34711</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>125177</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81350</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>41586</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>98934</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>88433</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>76297</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>224112</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>169783</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20936; 51269</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>95668; 140971</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59459; 97043</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27272; 54223</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>85064; 107537</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79648; 92214</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>55895; 96937</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>187786; 242301</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>137335; 187359</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30117</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>95844</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>65691</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>39348</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>111260</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>86598</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>69465</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>207103</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>152289</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18458; 46117</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>81282; 104000</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52933; 75173</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>25693; 53609</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>91336; 123497</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>71307; 96031</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>49800; 91550</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>185171; 224540</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>133561; 167285</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>231379</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>705738</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>537105</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>339943</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>836485</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>701710</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>571322</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1542223</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1238815</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>192665; 280324</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>657931; 746544</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>493730; 574548</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>298683; 382002</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>798400; 870729</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>666382; 726034</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>507473; 634080</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1472365; 1596992</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1182072; 1288049</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>